--- a/Distribuição Atividades.xlsx
+++ b/Distribuição Atividades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f945419a16710a90/Documentos/GitHub/Pint21-22/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6D60417-6221-42A0-9EA5-37BA8A4F49D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{B6D60417-6221-42A0-9EA5-37BA8A4F49D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDFED08D-1251-4115-9F84-F090E3E84AAD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8B21BCC3-E462-44D3-B163-C2A26AFBAEAC}"/>
+    <workbookView xWindow="-19298" yWindow="-6345" windowWidth="19396" windowHeight="10395" xr2:uid="{8B21BCC3-E462-44D3-B163-C2A26AFBAEAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -205,15 +205,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -222,8 +222,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -540,10 +540,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2321B4C8-9D57-470D-A1AC-19C4B0F7C77A}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,96 +558,96 @@
     <col min="11" max="11" width="17.5546875" customWidth="1"/>
     <col min="12" max="12" width="16.44140625" customWidth="1"/>
     <col min="13" max="13" width="18.44140625" customWidth="1"/>
-    <col min="14" max="14" width="34.6640625" customWidth="1"/>
+    <col min="14" max="14" width="35.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="7" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="12"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="10" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -742,14 +745,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H1:N3"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" xr:uid="{9C614FE4-94B1-442A-BCDE-02B2034A5CB1}"/>
@@ -757,5 +760,6 @@
     <hyperlink ref="E7" r:id="rId3" xr:uid="{D8434CDA-4A75-4B7E-ADED-A0DC4671A0A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="65" fitToHeight="0" orientation="landscape" r:id="rId4"/>
 </worksheet>
 </file>